--- a/survey.xlsx
+++ b/survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://georgfischer-my.sharepoint.com/personal/jack_zhang_georgfischer_com/Documents/Projects/Applicator/test 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10483A91586FF65ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92AF6B9-C014-465F-B6F4-25B34B9E4851}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="11_F25DC773A252ABDACC10483A91586FF65ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAEE52F9-064E-482E-AD57-8643C0DB0C4B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,40 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>Do you like coding?</t>
-  </si>
-  <si>
-    <t>What's your favorite language?</t>
-  </si>
-  <si>
-    <t>Please choose how you feel about coding.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Maybe</t>
-  </si>
-  <si>
-    <t>Choose your favorite programming language.</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Do you enjoy problem solving?</t>
-  </si>
-  <si>
-    <t>How much do you enjoy problem solving?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -87,25 +54,139 @@
     <t>NextID3</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>wsudhweiu</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>PP Body</t>
-  </si>
-  <si>
-    <t>1-PP</t>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Select the sensor type</t>
+  </si>
+  <si>
+    <t>start with a sensor</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Pipe size?</t>
+  </si>
+  <si>
+    <t>Flow/Pipe-Size</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Answer4</t>
+  </si>
+  <si>
+    <t>NextID4</t>
+  </si>
+  <si>
+    <t>Answer5</t>
+  </si>
+  <si>
+    <t>NextID5</t>
+  </si>
+  <si>
+    <t>Answer6</t>
+  </si>
+  <si>
+    <t>NextID7</t>
+  </si>
+  <si>
+    <t>Answer8</t>
+  </si>
+  <si>
+    <t>NextID8</t>
+  </si>
+  <si>
+    <t>Flow/Pipe-Material</t>
+  </si>
+  <si>
+    <t>Pipe material?</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>CPVC</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Flow/Flow-Range</t>
+  </si>
+  <si>
+    <t>Flow range?</t>
+  </si>
+  <si>
+    <t>Flow/Accuracy</t>
+  </si>
+  <si>
+    <t>Flow accuracy is required?</t>
+  </si>
+  <si>
+    <t>1 in</t>
+  </si>
+  <si>
+    <t>2in</t>
+  </si>
+  <si>
+    <t>Answer9</t>
+  </si>
+  <si>
+    <t>NextID9</t>
+  </si>
+  <si>
+    <t>Answer10</t>
+  </si>
+  <si>
+    <t>NextID10</t>
+  </si>
+  <si>
+    <t>3in</t>
+  </si>
+  <si>
+    <t>4in</t>
+  </si>
+  <si>
+    <t>Below 1 in</t>
+  </si>
+  <si>
+    <t>NextID6</t>
+  </si>
+  <si>
+    <t>Answer7</t>
+  </si>
+  <si>
+    <t>Flow/Not-Available</t>
+  </si>
+  <si>
+    <t>This product is not available.</t>
+  </si>
+  <si>
+    <t>0.5% or lower</t>
+  </si>
+  <si>
+    <t>above 1%</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Below 0.02 or above 10</t>
+  </si>
+  <si>
+    <t>PVDF</t>
+  </si>
+  <si>
+    <t>Other Materials</t>
   </si>
 </sst>
 </file>
@@ -149,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -157,6 +238,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,158 +526,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
